--- a/Ticketss.xlsx
+++ b/Ticketss.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <r>
       <t xml:space="preserve">                                  </t>
@@ -61,7 +61,25 @@
     </r>
   </si>
   <si>
-    <t>Lunes 06 Febrero 2023.</t>
+    <t>Martes 07 Febrero 2023.</t>
+  </si>
+  <si>
+    <t>Miercoles 08 Febrero 2023.</t>
+  </si>
+  <si>
+    <t>Viernes 10 Febrero 2023.</t>
+  </si>
+  <si>
+    <t>Jueves 09 Febrero 2023.</t>
+  </si>
+  <si>
+    <t>Sabado 11 Febrero 2023.</t>
+  </si>
+  <si>
+    <t>Domingo 12 Febrero 2023.</t>
+  </si>
+  <si>
+    <t>Lunes 13 Febrero 2023</t>
   </si>
 </sst>
 </file>
@@ -461,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -470,19 +488,58 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="227.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="227.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+      <formula1>$B$2:$B$8</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.39" right="0.42" top="0.64" bottom="7.61" header="0.3" footer="0.3"/>
   <pageSetup paperSize="124" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Ticketss.xlsx
+++ b/Ticketss.xlsx
@@ -61,31 +61,34 @@
     </r>
   </si>
   <si>
-    <t>Martes 07 Febrero 2023.</t>
-  </si>
-  <si>
-    <t>Miercoles 08 Febrero 2023.</t>
-  </si>
-  <si>
-    <t>Viernes 10 Febrero 2023.</t>
-  </si>
-  <si>
-    <t>Jueves 09 Febrero 2023.</t>
-  </si>
-  <si>
-    <t>Sabado 11 Febrero 2023.</t>
-  </si>
-  <si>
-    <t>Domingo 12 Febrero 2023.</t>
-  </si>
-  <si>
-    <t>Lunes 13 Febrero 2023</t>
+    <t>Miercoles 05 de Abril 2023.</t>
+  </si>
+  <si>
+    <t>Martes 04 de Abril 2023.</t>
+  </si>
+  <si>
+    <t>Jueves 06 de Abril 2023.</t>
+  </si>
+  <si>
+    <t>Viernes 07 de Abril 2023.</t>
+  </si>
+  <si>
+    <t>Sabado 08 de Abril 2023.</t>
+  </si>
+  <si>
+    <t>Domingo 09 de Abril 2023.</t>
+  </si>
+  <si>
+    <t>Lunes 10 de Abril 20233.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -151,6 +154,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -489,49 +493,71 @@
   <cols>
     <col min="1" max="1" width="32.85546875" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="227.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="227.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>45020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="3">
+        <v>45021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="3">
+        <v>45023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="3">
+        <v>45024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="3">
+        <v>45025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45026</v>
       </c>
     </row>
   </sheetData>
